--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value723.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value723.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.202407368980165</v>
+        <v>1.166321516036987</v>
       </c>
       <c r="B1">
-        <v>1.931889345449845</v>
+        <v>1.897526860237122</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.82264815597141</v>
+        <v>2.123118877410889</v>
       </c>
       <c r="E1">
-        <v>1.012865442810924</v>
+        <v>1.066710710525513</v>
       </c>
     </row>
   </sheetData>
